--- a/EdurekaFramework28April2018/inputFile/TestData.xlsx
+++ b/EdurekaFramework28April2018/inputFile/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606432B1-AD5F-4679-A60A-4A904DF191CA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -31,28 +31,22 @@
     <t>Dhingra</t>
   </si>
   <si>
-    <t>Gaurav</t>
-  </si>
-  <si>
-    <t>Yadav</t>
-  </si>
-  <si>
-    <t>Kapil</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>Virat</t>
-  </si>
-  <si>
-    <t>Kohli</t>
+    <t>Saurabh.Dhingra@gmail.com</t>
+  </si>
+  <si>
+    <t>+44 20 7234 3456</t>
+  </si>
+  <si>
+    <t>M11 1EQ</t>
+  </si>
+  <si>
+    <t>Password@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,53 +358,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>32489</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>100000</v>
+      </c>
+      <c r="H1">
+        <v>20000</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EdurekaFramework28April2018/inputFile/TestData.xlsx
+++ b/EdurekaFramework28April2018/inputFile/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12324" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Password@123</t>
+  </si>
+  <si>
+    <t>12-12-1988</t>
   </si>
 </sst>
 </file>
@@ -76,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +366,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,8 +390,8 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
-        <v>32489</v>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
